--- a/medicine/Enfance/Nadia_Budde/Nadia_Budde.xlsx
+++ b/medicine/Enfance/Nadia_Budde/Nadia_Budde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nadia Budde, née en 1967 à Berlin, est une graphiste allemande et illustratrice de livres pour enfants.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nadia Budde a suivi des études de graphisme à l'académie des Beaux-Arts de Berlin, puis au Royal College of Art à Londres.
-Son premier album illustré Un, deux, trois et toi, publié aux éditions Peter Hammer, a reçu le Prix allemand de littérature de jeunesse en 2000, et de nombreux autres prix. Choisis quelque chose mais dépêche-toi ! , publié chez L'Agrume, a reçu le prix Pépite BD en 2012 au salon du livre et de la presse jeunesse de Montreuil, le prix Max et Moritz de la meilleure bande dessinée, et reçu la « Mention » du Prix BolognaRagazzi[1], à la Foire du livre de jeunesse de Bologne en 2010, dans la catégorie Fiction.
-En 2017 et 2018, aussi en 2022 et 2023, elle est sélectionnée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[2].
+Son premier album illustré Un, deux, trois et toi, publié aux éditions Peter Hammer, a reçu le Prix allemand de littérature de jeunesse en 2000, et de nombreux autres prix. Choisis quelque chose mais dépêche-toi ! , publié chez L'Agrume, a reçu le prix Pépite BD en 2012 au salon du livre et de la presse jeunesse de Montreuil, le prix Max et Moritz de la meilleure bande dessinée, et reçu la « Mention » du Prix BolognaRagazzi, à la Foire du livre de jeunesse de Bologne en 2010, dans la catégorie Fiction.
+En 2017 et 2018, aussi en 2022 et 2023, elle est sélectionnée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 Elle vit avec sa famille à Berlin.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Eins, zwei, drei, Tier, Peter Hammer Verlag, Wuppertal 1999,  (ISBN 3-87294-827-X)
 Un, deux, trois et toi, Paris, Éditions Être, 2004  (ISBN 978-28-44070-40-1)
@@ -601,15 +617,17 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2000 : Deutscher Jugendliteraturpreis (Prix allemand de la littérature pour la jeunesse), catégorie Livre illustré, pour Eins zwei drei Tier
-2010 :  « Mention » Fiction, Prix BolognaRagazzi[1], Foire du livre de jeunesse de Bologne  pour  Choisis quelque chose, mais dépêche-toi
-2010 : Prix Max et Moritz pour la meilleure BD pour enfants pour Choisis quelque chose, mais dépêche-toi [3]
+2010 :  « Mention » Fiction, Prix BolognaRagazzi, Foire du livre de jeunesse de Bologne  pour  Choisis quelque chose, mais dépêche-toi
+2010 : Prix Max et Moritz pour la meilleure BD pour enfants pour Choisis quelque chose, mais dépêche-toi 
 2010 : Gustav-Heinemann-Friedenspreis pour la BD pour enfants pour Choisis quelque chose, mais dépêche-toi
 2010 : Deutscher Jugendliteraturpreis (prix de littérature de jeunesse allemande) pour Choisis quelque chose, mais dépêche-toi
 2012 : Pépite BD au salon du livre et de la presse jeunesse de Montreuil pour Choisis quelque chose, mais dépêche-toi !
-2017, 2018, 2022 et 2023 :  Sélection pour le Prix commémoratif Astrid-Lindgren[2]</t>
+2017, 2018, 2022 et 2023 :  Sélection pour le Prix commémoratif Astrid-Lindgren</t>
         </is>
       </c>
     </row>
